--- a/dataFiles/spoonapults_Spring2025.xlsx
+++ b/dataFiles/spoonapults_Spring2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njh5464/Documents/GitHub/STAT461/dataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8ECF3D-ABFE-0A4E-9A44-6C09CA1B63E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4B0A2-6B27-4D4D-B393-472238F062DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{A1779671-5A7F-FC4A-B217-1DC6FF18CE10}"/>
+    <workbookView xWindow="17000" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{A1779671-5A7F-FC4A-B217-1DC6FF18CE10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Spoonapult number </t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>second</t>
+  </si>
+  <si>
+    <t>Spoonapult</t>
   </si>
 </sst>
 </file>
@@ -518,12 +518,12 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -552,13 +552,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -569,13 +569,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -586,13 +586,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -603,13 +603,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -620,13 +620,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -637,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>259</v>
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>45</v>
@@ -688,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>155</v>
@@ -722,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>218</v>
@@ -739,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>111.5</v>
@@ -756,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>127</v>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>109.5</v>
@@ -790,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>341.5</v>
@@ -807,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>704</v>
@@ -824,7 +824,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>107</v>
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>77.5</v>
@@ -858,7 +858,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>222.2</v>
@@ -875,7 +875,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>237.3</v>
@@ -892,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>329.5</v>
@@ -909,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>73.099999999999994</v>
@@ -926,7 +926,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>251.6</v>
@@ -943,7 +943,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>227.3</v>
